--- a/bot/tableButtonsCards.xlsx
+++ b/bot/tableButtonsCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\BotApiGenerator\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE43DEB-49A3-4DE5-8130-B50C6DFD3749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C8A65-2595-4683-9289-981C66576724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>URL Thumbnail</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t>https://static.thenounproject.com/png/2980167-200.png</t>
+  </si>
+  <si>
+    <t>SETHOST</t>
+  </si>
+  <si>
+    <t>SETBOTNAME</t>
+  </si>
+  <si>
+    <t>https://static.thenounproject.com/png/3166970-200.png</t>
+  </si>
+  <si>
+    <t>https://static.thenounproject.com/png/2604258-200.png</t>
+  </si>
+  <si>
+    <t>Click to set bot name</t>
+  </si>
+  <si>
+    <t>Click to set bot host</t>
+  </si>
+  <si>
+    <t>Set Bot name</t>
+  </si>
+  <si>
+    <t>Set bot host</t>
+  </si>
+  <si>
+    <t>Set the bot name</t>
+  </si>
+  <si>
+    <t>Set the bot host</t>
   </si>
 </sst>
 </file>
@@ -437,22 +467,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="119.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="143.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -487,97 +517,148 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{B1AA4B7A-27D6-47DC-A26B-448D859E0321}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{CF1F016A-1543-4B28-817A-323E9F68AE11}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{B1AA4B7A-27D6-47DC-A26B-448D859E0321}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{CF1F016A-1543-4B28-817A-323E9F68AE11}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{1B4D0A04-3ADF-44C3-A5FD-C9C77C49C2B4}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{77799E5B-93B0-48DF-82CB-1D10C52B78DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/bot/tableButtonsCards.xlsx
+++ b/bot/tableButtonsCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\BotApiGenerator\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C8A65-2595-4683-9289-981C66576724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F4181C-C8D3-4253-A7AA-5BBE4D248A82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="630" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>URL Thumbnail</t>
   </si>
@@ -57,36 +57,6 @@
     <t>Action Value Button</t>
   </si>
   <si>
-    <t>Click to add input</t>
-  </si>
-  <si>
-    <t>Click to add output</t>
-  </si>
-  <si>
-    <t>Add output param</t>
-  </si>
-  <si>
-    <t>Add input param</t>
-  </si>
-  <si>
-    <t>Add output parameter to the bot</t>
-  </si>
-  <si>
-    <t>Add input parameter to the bot</t>
-  </si>
-  <si>
-    <t>ADDINPUTPARAM</t>
-  </si>
-  <si>
-    <t>ADDOUTPUTPARAM</t>
-  </si>
-  <si>
-    <t>Click to generate bot</t>
-  </si>
-  <si>
-    <t>https://static.thenounproject.com/png/2972697-200.png</t>
-  </si>
-  <si>
     <t>GENERATE</t>
   </si>
   <si>
@@ -99,37 +69,46 @@
     <t>https://static.thenounproject.com/png/2276541-200.png</t>
   </si>
   <si>
-    <t>https://static.thenounproject.com/png/2980167-200.png</t>
-  </si>
-  <si>
-    <t>SETHOST</t>
-  </si>
-  <si>
     <t>SETBOTNAME</t>
   </si>
   <si>
     <t>https://static.thenounproject.com/png/3166970-200.png</t>
   </si>
   <si>
-    <t>https://static.thenounproject.com/png/2604258-200.png</t>
-  </si>
-  <si>
-    <t>Click to set bot name</t>
-  </si>
-  <si>
-    <t>Click to set bot host</t>
-  </si>
-  <si>
     <t>Set Bot name</t>
   </si>
   <si>
-    <t>Set bot host</t>
-  </si>
-  <si>
     <t>Set the bot name</t>
   </si>
   <si>
-    <t>Set the bot host</t>
+    <t>https://static.thenounproject.com/png/2609861-200.png</t>
+  </si>
+  <si>
+    <t>Add Decision</t>
+  </si>
+  <si>
+    <t>Bot API</t>
+  </si>
+  <si>
+    <t>Expose your bot through an API</t>
+  </si>
+  <si>
+    <t>EXPOSEAPI</t>
+  </si>
+  <si>
+    <t>ADDDECISION</t>
+  </si>
+  <si>
+    <t>https://static.thenounproject.com/png/795591-200.png</t>
+  </si>
+  <si>
+    <t>Add ODM Decision all to the bot</t>
+  </si>
+  <si>
+    <t>Specify Details</t>
+  </si>
+  <si>
+    <t>Generate Bot</t>
   </si>
 </sst>
 </file>
@@ -467,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,62 +496,62 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
@@ -581,84 +560,56 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G13" s="2"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{B1AA4B7A-27D6-47DC-A26B-448D859E0321}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{CF1F016A-1543-4B28-817A-323E9F68AE11}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{1B4D0A04-3ADF-44C3-A5FD-C9C77C49C2B4}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{77799E5B-93B0-48DF-82CB-1D10C52B78DD}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{B1AA4B7A-27D6-47DC-A26B-448D859E0321}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{1B4D0A04-3ADF-44C3-A5FD-C9C77C49C2B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/bot/tableButtonsCards.xlsx
+++ b/bot/tableButtonsCards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\BotApiGenerator\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F4181C-C8D3-4253-A7AA-5BBE4D248A82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A42700-BE06-4114-A1DD-F14ACF932EE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="630" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31155" yWindow="7965" windowWidth="11520" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Bot API</t>
   </si>
   <si>
-    <t>Expose your bot through an API</t>
-  </si>
-  <si>
     <t>EXPOSEAPI</t>
   </si>
   <si>
@@ -102,13 +99,16 @@
     <t>https://static.thenounproject.com/png/795591-200.png</t>
   </si>
   <si>
-    <t>Add ODM Decision all to the bot</t>
-  </si>
-  <si>
     <t>Specify Details</t>
   </si>
   <si>
     <t>Generate Bot</t>
+  </si>
+  <si>
+    <t>Expose bot API</t>
+  </si>
+  <si>
+    <t>Call an ODM Decision</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -525,7 +525,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -551,25 +551,25 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
